--- a/productos_mercadolibre.xlsx
+++ b/productos_mercadolibre.xlsx
@@ -453,884 +453,884 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kit De Componentes Electrónicos Para Arduino, Raspberry Pi</t>
+          <t>Celular Samsung Galaxy S24 5g Dual Sim 128 Gb Gris Mármol 8 Gb Ram</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://click1.mercadolibre.com.mx/mclics/clicks/external/MLM/count?a=hUzpgSC8lnWOxE3XBqcsdPTAYP%2B95D64xeRH%2FpVkzRMRA7To9Q9kggY41gPBjMbcn8BGXwqL%2FpgSXxIHFSh88yQM0WxA8xXMMdQQAqq8uYdSoUzth3uWg2meXEF8hHu%2BcE8aSWMlOBm%2BMBANyRb9raCCWzByzzQNeGCWW9i3IMOseAkoqOhmU6Wu%2BEwgPV2W1tTVaWqmyt5fPgcJ7Iy39Ks0Z76qZEE%2FAPBaYvXFvQIRI%2BHqbNlhrvPMCqJSfAubOsZLHUQgyfcXagaVzS%2FFUYiAGl151wDJVfRqFe3X412XRQ9lJ7Wri%2FLLb1jNVy%2F8QscKykUaYTz3zXaC%2FL0O5C1FfPJjESVVpyDfwOCon%2FfMpbJNwcAt8Ystfgs4cbRCaDtS1Scf2IsVlDjZ5KrHFP3Jcg0JPPIUqLur8SWTSHozAEx0Y%2B4oSKnYc2LLdibpwtBj0dUd%2BQY%2Bo%2BjNgBIPphzZtDdpE2PHjdBX8OctLvcOa3fI5%2B8wbWXyDsokiqkrqRC%2FuGsjI3A8SFg0dj6uFA54S%2BLSpMdvukcoDwZEgxnrMEjUCAaeHNVEp0jJrcBK1DPbALoxyGr2sDPylnGq%2F4lOE08yyvWkh7uFUmubMXjtYIwc7NBIZede48frO2s1kF%2BOFIgOtMVuWp7mX2FsYBhVo0ajmfaBu7dvi5laVEgrdKjLflf7Z%2BKRJ1q8BZK4QA%3D%3D&amp;rb=x#polycard_client=search-nordic&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://click1.mercadolibre.com.mx/mclics/clicks/external/MLM/count?a=LuVTMlJs9kSkh2K3Y5MoLD1loodAggdoERlrrxk1G%2B9lrghs83u%2B%2Fx0irExzv0sgNW7WrbNNHmtS4W8xt2IgEQhJ2loMdL%2BZ6Hl%2B9enD5k7kZfJzDfGRvef4cot0%2F8uubWUaX2vuva0hEJwSqitsBNqCQtdWqQ6jEvePBvPoo4xxgwKYhsacjZ%2Fp7wqWEyOCmu26EcH%2BKcXVOV10F97R%2F5qDZjTlouOQ089%2BV%2FvYe6XT%2BMlzyaXdbIjDdgidc4NxVYd9PKubLJRQEer0U9cMqEIRO81M6UMorcJzzcZSM1Acwf%2BzywAmQThuwZJeNcJ5MP2cb4CqYrK3FGrncOPYA51GcUmq1OVmS1PoaJJBHOJ%2BOh%2BO%2F9ZwqVjsPUJzJ8q911EST3%2B9rv6oypBkAboGZsjrXuk52V9WKfjXHYn%2Be8Af8JWMhtMLXiArH6hrI9RDniJrquLWhbN2%2FMqrR3WbpyMrRlKFnm3AQ%2BYBmKO6BsSPsGoQ60j3RtzO0LZBIE4de4jPuxEpZoToT3J%2BvC6l2ySk8DVy5SYit9TjcQy26iNCBlhcJWLu0lHzNHTEYE63UjOMt%2FDXEMfNJlcYgH4uQwXxdS%2FRJaAFfleqpkNCFxWqrv%2BBmX6EsRsAGjBbe72EUEa54sO319bgtixEphIXlbXY9uwQIC0X8PJEqMHbsF6SNuaba6b57xdg8%2BU%2Bm766q56XyHDMTVu1eE2vqbJD8R5arDlVJOO4Hd3vqqagJC%2FFxx3ujIGe1jgI3lNNIy%2Fw4ewOjWIQh9HrmXbJCYeTsQkPgdTr%2BQd1iiff&amp;rb=x#polycard_client=search-nordic&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$179</t>
+          <t>$10,639</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Case De Plástico Abs Para Raspberry Pi 4, Electrónica</t>
+          <t>Samsung Galaxy S24 5g Dual Sim 256 Gb Onyx Black 8 Gb Ram</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://click1.mercadolibre.com.mx/mclics/clicks/external/MLM/count?a=7UXzsh1BvD%2B9Ws5d3cMhYg7jTzJTUcaUiDUUPUIiNB9EeTgRWTUR0VG%2BToqGKPIiprw76QH01PkXn1R3WgJVO7QswHKUtfpiG%2B1%2B8vnsljHMvTNtk8cpyatZmw%2BqUjKe6PXUK2UpeDoSZQ7PYvidml3f%2FD7XRJ6pGWuEwG%2FAEGNXb42F3alNnGgv%2Fw0Guz4pSlMLaeoxsSaL4oJPC%2B3b%2BblRUdiTXya%2F18IAFtrcQRmjiaybcQ7hkXHCAforlLhWPRVzkVcYQ04S1NDPlx59tU7prqay0HlE5t2dVj0BaUKPca1oMfT3RYotkvZATo09yQCoC6u85u%2FzEEViX9NeGhpFm7vpW9D14hyuRjwhslN5PO1Ar6jSR3oZkW6gGJXz85%2F%2BBskQTAn3V0SE36Ypvn1cPj3pJZ92HniAPuULNMUQPdKombh3vH4GqN096Rvv%2F5R7qOEu18hkAyIyu6jiiDtgtybG13IeKyVTJeOJ6EWpblxuApaPQVTKTRPwHbD24zZfcgVMQokaD9GnZrZ440P9VBnLzl2p4zr4tURTTjdmQT8ffA3WDIgY%2BWOZBjQbZBCn9Jzu2vUXftaqubMikhJDNDRdaZjG2ClRGiZ8cYrnyOZh8Tmi%2FSFc2ebS%2FfCHnwiV7ELjOT4MBzg3dXttwDqUzc57nxRp5QTTt2CH1Jdn4QNiQ1iVbRby&amp;rb=x#polycard_client=search-nordic&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://click1.mercadolibre.com.mx/mclics/clicks/external/MLM/count?a=nILhlDhSoAFS0Bk8TDrLc8dZ4A%2FgyqDbnrXZw%2F62btjpoMoojxYJVnK9D5dzRxlKZ5w9itwFzGl%2Fr8hNhmEMoFGFk5Hn5yKUwa1Bjn6S4woO1ougzZbOIjqjnFN0pr8jDq49AxpAfG7uM5FTMk6E9oTWkEY0AXBL9ffs%2BtgEv1cQ1uXhuOMjdl6BluqvZVkYX%2Be4Kpjoq4hNz%2BsXH66TXCX1sV9%2BXDx%2FZcR7Buxkk1Y5PjmX3EFGye2etbGdxZ4jqxkYPom%2Bem77bhFRW%2FtmtYqbw6Tti7OiO6ihtzqj2jNiz3gsT%2BR0Ij%2Bi6M75KNAxb3ku9ceTmGPaQMEX7kCaH8k8U7iD2bb68jWRysmTlpRdIxRofcMZSQrsy7nwz2PVkfwNutETp7v7a%2Fu9JEVka4JzmSQ3xStxKHROIpWEoRXl%2BzcMIg8m5vBXsefc4WQrsgbPshsmMxB9WgZHXiCU4N5dEeJQ2sUDQNd%2B0kfxnAJVcU9mpaAT5jMW2dLDD8oo1nyvH4hj8VuHMfBC3wBDjg%2BF2HIygoy0wBtFu8YvTdOkkkMW6cqi5nQEwLu2ze9jv0cN%2FeAm54iq27K1a1pGjPle7O8u0P5qdsohEz6EtYf7AtgnOXQsSPGe9tZ4NfM8O86iTYV5CfJti4wPLhw58wB1%2FV6CwUm%2Fo4yx5g8i3yeuc61YkuYbXS1I1ue2Ny3z%2BIbr7ejI1gBSYJsnoy6zcD%2BEofiK4C5O%2FFqFFnOTI9dVUXOJW09KyPOCN6%2B5E0uNWTFMo0YKwI%2FX1n7WkcpKSdSUiA%3D%3D&amp;rb=x#polycard_client=search-nordic&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$139</t>
+          <t>$10,412</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>REXQualis Kit Componentes Electronicos Para Arduino, Raspberry Pi Con Módulo De Fuente De Alimentación, Cable De Puente, Placa De Pruebas De 830 Puntos De Unión, Potenciómetro De Precisión, Resistenci</t>
+          <t>Samsung Galaxy A35 5G 256 GB Azul oscuro 8 GB RAM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/rexqualis-kit-componentes-electronicos-para-arduino-raspberry-pi-con-modulo-de-fuente-de-alimentacion-cable-de-puente-placa-de-pruebas-de-830-puntos-de-union-potenciometro-de-precision-resistenci/p/MLM36748174#polycard_client=search-nordic&amp;wid=MLM3062846500&amp;sid=search&amp;searchVariation=MLM36748174&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://www.mercadolibre.com.mx/samsung-galaxy-a35-5g-256-gb-azul-oscuro-8-gb-ram/p/MLM34729843#polycard_client=search-nordic&amp;wid=MLM3073375226&amp;sid=search&amp;searchVariation=MLM34729843&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$250</t>
+          <t>$5,399</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Raspberry Pi 4 Modelo B 4gb Ram</t>
+          <t>Samsung Galaxy S24 5G Dual SIM 256 GB cobalt violet 8 GB RAM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/raspberry-pi-4-modelo-b-4gb-ram/p/MLM33005781#polycard_client=search-nordic&amp;wid=MLM2878701236&amp;sid=search&amp;searchVariation=MLM33005781&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-5g-dual-sim-256-gb-cobalt-violet-8-gb-ram/p/MLM29701050#polycard_client=search-nordic&amp;wid=MLM2014390343&amp;sid=search&amp;searchVariation=MLM29701050&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$1,490</t>
+          <t>$13,149</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Raspberry Placa Desarrollo Pi Pico W Rp2040 Con Wifi</t>
+          <t>Samsung Galaxy S24 Fe 256gb 8gb 5g Mint</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/raspberry-placa-desarrollo-pi-pico-w-rp2040-con-wifi/p/MLM34289250#polycard_client=search-nordic&amp;wid=MLM3136307880&amp;sid=search&amp;searchVariation=MLM34289250&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-fe-256gb-8gb-5g-mint/p/MLM41987932#polycard_client=search-nordic&amp;wid=MLM3459000768&amp;sid=search&amp;searchVariation=MLM41987932&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$170</t>
+          <t>$11,839</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Raspberry Pi 5 (8 Gb)</t>
+          <t>Samsung Galaxy S24 Ultra 5G Dual SIM 1 TB violeta titanio 12 GB RAM</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/raspberry-pi-5-8-gb/p/MLM32625223#polycard_client=search-nordic&amp;wid=MLM3056655140&amp;sid=search&amp;searchVariation=MLM32625223&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-ultra-5g-dual-sim-1-tb-violeta-titanio-12-gb-ram/p/MLM29893918#polycard_client=search-nordic&amp;wid=MLM2161998383&amp;sid=search&amp;searchVariation=MLM29893918&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$2,190</t>
+          <t>$35,399</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kit De Componentes Electrónicos Para Arduino, Raspberry Pi</t>
+          <t>Samsung Galaxy S24 (eSIM) 5G Dual SIM 256 GB gris mármol 8 GB RAM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-2085391795-kit-de-componentes-electronicos-para-arduino-raspberry-pi-_JM#polycard_client=search-nordic&amp;position=13&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-esim-5g-dual-sim-256-gb-gris-marmol-8-gb-ram/p/MLM29805718#polycard_client=search-nordic&amp;wid=MLM2014062263&amp;sid=search&amp;searchVariation=MLM29805718&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$179</t>
+          <t>$13,149</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Carcasa Aluminio Raspberry Pi 4 Case Ventilador Pi4 B Kit</t>
+          <t>Samsung Galaxy S24 5G Dual SIM 128 GB onyx black 8 GB RAM</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-1822760237-carcasa-aluminio-raspberry-pi-4-case-ventilador-pi4-b-kit-_JM#polycard_client=search-nordic&amp;position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-5g-dual-sim-128-gb-onyx-black-8-gb-ram/p/MLM29700518#polycard_client=search-nordic&amp;wid=MLM3383007050&amp;sid=search&amp;searchVariation=MLM29700518&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$298</t>
+          <t>$12,876</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Raspberry Pi 4 B Carcasa Case Disipador Aluminio Doble Ventilador Pi4</t>
+          <t>Samsung Galaxy S24 Ultra 256gb 12gb Ram Titanium Black</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-711345687-raspberry-pi-4-b-carcasa-case-disipador-aluminio-doble-ventilador-pi4-_JM#polycard_client=search-nordic&amp;position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-ultra-256gb-12gb-ram-titanium-black/p/MLM37346312#polycard_client=search-nordic&amp;wid=MLM2038547973&amp;sid=search&amp;searchVariation=MLM37346312&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$423</t>
+          <t>$20,249</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Raspberry Sc15184 Pi 4 Model B 2019 Quad Core 64 Bit Wifi 2GB</t>
+          <t>Samsung Galaxy S24, Galaxy Ai, Gris Marmol 8GB RAM 256GB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/raspberry-sc15184-pi-4-model-b-2019-quad-core-64-bit-wifi-2gb/p/MLM32602253#polycard_client=search-nordic&amp;wid=MLM3236651508&amp;sid=search&amp;searchVariation=MLM32602253&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-galaxy-ai-gris-marmol-8gb-ram-256gb/p/MLM34295457#polycard_client=search-nordic&amp;wid=MLM3427932142&amp;sid=search&amp;searchVariation=MLM34295457&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$1,290</t>
+          <t>$12,999</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Raspberry Pi 4 8gb Carcasa Ventilador Sd 32gb Hdmi Pi4 B Kit</t>
+          <t>Samsung Galaxy S24 Fe 8 Gb Ram 256 Gb Rom 5g Gris</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-1422838162-raspberry-pi-4-8gb-carcasa-ventilador-sd-32gb-hdmi-pi4-b-kit-_JM#polycard_client=search-nordic&amp;position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-fe-8-gb-ram-256-gb-rom-5g-gris/p/MLM41747367#polycard_client=search-nordic&amp;wid=MLM2182717773&amp;sid=search&amp;searchVariation=MLM41747367&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$2,985</t>
+          <t>$11,839</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Raspberry Pi3 B Quadcore 1.2 GHz Hdmi 4 USB</t>
+          <t>Samsung Galaxy S24 Plus 512gb 12ram Cobalt Violet</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/raspberry-pi3-b-quadcore-12-ghz-hdmi-4-usb/p/MLM32895433#polycard_client=search-nordic&amp;wid=MLM3105357840&amp;sid=search&amp;searchVariation=MLM32895433&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-3461443352-samsung-galaxy-s24-plus-512gb-12ram-cobalt-violet-_JM_NoIndex_True?searchVariation=186038451565#polycard_client=search-nordic&amp;searchVariation=186038451565&amp;position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$1,305</t>
+          <t>$7,500</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>330ohms Raspberry Pi 3 Modelo B</t>
+          <t>Samsung Galaxy S24 (Dual eSIM) 5G Dual SIM 256 GB amarillo ámbar 8 GB RAM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/330ohms-raspberry-pi-3-modelo-b/p/MLM37504249#polycard_client=search-nordic&amp;wid=MLM3309110070&amp;sid=search&amp;searchVariation=MLM37504249&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-dual-esim-5g-dual-sim-256-gb-amarillo-ambar-8-gb-ram/p/MLM29882668#polycard_client=search-nordic&amp;wid=MLM3400988856&amp;sid=search&amp;searchVariation=MLM29882668&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$1,361</t>
+          <t>$12,999</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Raspberry Pi 5 4gb Case Ventilador Sd 64gb Hdmi Pi5 Kit</t>
+          <t>Samsung Galaxy S24 Ultra 5g Dual Sim 256 Gb Violeta Titanio 12 Gb Ram.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-3301235948-raspberry-pi-5-4gb-case-ventilador-sd-64gb-hdmi-pi5-kit-_JM#polycard_client=search-nordic&amp;position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-3461479214-samsung-galaxy-s24-ultra-5g-dual-sim-256-gb-violeta-titanio-12-gb-ram-_JM_NoIndex_True?searchVariation=182207988674#polycard_client=search-nordic&amp;searchVariation=182207988674&amp;position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$2,585</t>
+          <t>$8,600</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Raspberry Pi 4 2gb Ram</t>
+          <t>Samsung Galaxy S24 Ultra 5g Dual Sim 512 Gb Gris Titanio 12 Gb Ram</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/raspberry-pi-4-2gb-ram/p/MLM33317168#polycard_client=search-nordic&amp;wid=MLM2125979509&amp;sid=search&amp;searchVariation=MLM33317168&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-3461530180-samsung-galaxy-s24-ultra-5g-dual-sim-512-gb-gris-titanio-12-gb-ram-_JM_NoIndex_True?searchVariation=182207929432#polycard_client=search-nordic&amp;searchVariation=182207929432&amp;position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$1,290</t>
+          <t>$8,999</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cámara Raspberry Pi 4/3 1080p 720p 5mp (con Base/soporte)</t>
+          <t>Samsung Galaxy S24 Ultra 512gb 12ram Titanium Black + Power Adapter Samsung 25w</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-1916891675-camara-raspberry-pi-43-1080p-720p-5mp-con-basesoporte-_JM#polycard_client=search-nordic&amp;position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-3322237816-samsung-galaxy-s24-ultra-512gb-12ram-titanium-black-power-adapter-samsung-25w-_JM_NoIndex_True?searchVariation=184397704023#polycard_client=search-nordic&amp;searchVariation=184397704023&amp;position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$299</t>
+          <t>$20,519</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Raspberry Pi Pico W Headers Microcontrolador Rp2040 Wifi Kit</t>
+          <t>Samsung Galaxy S24 5g 256 Gb Negro Ónix</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-1526583785-raspberry-pi-pico-w-headers-microcontrolador-rp2040-wifi-kit-_JM#polycard_client=search-nordic&amp;position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-3295701444-samsung-galaxy-s24-5g-256-gb-negro-onix-_JM_NoIndex_True?searchVariation=181303068420#polycard_client=search-nordic&amp;searchVariation=181303068420&amp;position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$346</t>
+          <t>$12,239</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Disipadores Para Raspberry Pi (kit De 4 Piezas)</t>
+          <t>Samsung Galaxy S24 256 Gb 8 Gb Ram Violeta</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-1474315981-disipadores-para-raspberry-pi-kit-de-4-piezas-_JM#polycard_client=search-nordic&amp;position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-2141171385-samsung-galaxy-s24-256-gb-8-gb-ram-violeta-_JM_NoIndex_True?searchVariation=181626519270#polycard_client=search-nordic&amp;searchVariation=181626519270&amp;position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$76</t>
+          <t>$11,999</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Disipadores De Calor Raspberry Pi 4 B Aluminio 4 Piezas Kit</t>
+          <t>Samsung Galaxy S24 256 Gb 8 Gb Ram Gris Marmol</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-1730531384-disipadores-de-calor-raspberry-pi-4-b-aluminio-4-piezas-kit-_JM#polycard_client=search-nordic&amp;position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-3309092904-samsung-galaxy-s24-256-gb-8-gb-ram-gris-marmol-_JM_NoIndex_True?searchVariation=181354676230#polycard_client=search-nordic&amp;searchVariation=181354676230&amp;position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$67</t>
+          <t>$11,999</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Raspberry Pi 4 Modelo B 8gb Ram</t>
+          <t>Samsung Galaxy S24 Ultra Titanio (256gb) Original Grado A</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-3054111684-raspberry-pi-4-modelo-b-8gb-ram-_JM#polycard_client=search-nordic&amp;position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-2174611083-samsung-galaxy-s24-ultra-titanio-256gb-original-grado-a-_JM_NoIndex_True?searchVariation=182093831104#polycard_client=search-nordic&amp;searchVariation=182093831104&amp;position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$1,990</t>
+          <t>$18,590</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Carcasa para Raspberry Pi 4 con Ventilador Disipadores Calor en kit Case Negro</t>
+          <t>Samsung Galaxy Z Fold5 5G Dual SIM 256 GB phantom black 12 GB RAM</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/carcasa-para-raspberry-pi-4-con-ventilador-disipadores-calor-en-kit-case-negro/p/MLM36039600#polycard_client=search-nordic&amp;wid=MLM3027969232&amp;sid=search&amp;searchVariation=MLM36039600&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://www.mercadolibre.com.mx/samsung-galaxy-z-fold5-5g-dual-sim-256-gb-phantom-black-12-gb-ram/p/MLM25864697#polycard_client=search-nordic&amp;wid=MLM3280221174&amp;sid=search&amp;searchVariation=MLM25864697&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$381</t>
+          <t>$25,027</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Eliminador Oficial Raspberry Pi 4 5v 3a Usb C</t>
+          <t>Samsung Galaxy S24 Plus (Dual eSIM) 5G 256 GB gris mármol 12 GB RAM</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-1591119889-eliminador-oficial-raspberry-pi-4-5v-3a-usb-c-_JM#polycard_client=search-nordic&amp;position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-plus-dual-esim-5g-256-gb-gris-marmol-12-gb-ram/p/MLM29900351#polycard_client=search-nordic&amp;wid=MLM2063469077&amp;sid=search&amp;searchVariation=MLM29900351&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$240</t>
+          <t>$17,799</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Raspberry Pi 4 B 4gb - Fuente Carcasa Oficial Disipador Kit</t>
+          <t>Samsung Galaxy S24 256gb 8ram Onyx Black + Power Adapter Samsung 25w</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-776692950-raspberry-pi-4-b-4gb-fuente-carcasa-oficial-disipador-kit-_JM#polycard_client=search-nordic&amp;position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-2124774423-samsung-galaxy-s24-256gb-8ram-onyx-black-power-adapter-samsung-25w-_JM_NoIndex_True?searchVariation=181432960594#polycard_client=search-nordic&amp;searchVariation=181432960594&amp;position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$2,231</t>
+          <t>$13,799</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cable Hdmi A Micro Hdmi Raspberry Pi 4</t>
+          <t>Samsung Galaxy S24 Ultra 512gb 12ram Titanium Grey + Silicone Case Samsung Galaxy S24 Ultra</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-714946852-cable-hdmi-a-micro-hdmi-raspberry-pi-4-_JM#polycard_client=search-nordic&amp;position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-3313208748-samsung-galaxy-s24-ultra-512gb-12ram-titanium-grey-silicone-case-samsung-galaxy-s24-ultra-_JM_NoIndex_True?searchVariation=181380959416#polycard_client=search-nordic&amp;searchVariation=181380959416&amp;position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$113</t>
+          <t>$21,957</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Disipadores De Calor Raspberry Pi4 Cobre Smd Cpu Pi 4 B Kit</t>
+          <t>Samsung Galaxy S24 Plus 256gb 12ram Cobalt Violet + Power Adapter Samsung 25w</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-755460645-disipadores-de-calor-raspberry-pi4-cobre-smd-cpu-pi-4-b-kit-_JM#polycard_client=search-nordic&amp;position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-2124775279-samsung-galaxy-s24-plus-256gb-12ram-cobalt-violet-power-adapter-samsung-25w-_JM_NoIndex_True?searchVariation=181432964018#polycard_client=search-nordic&amp;searchVariation=181432964018&amp;position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$99</t>
+          <t>$15,674</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Raspberry Pi 4 B 8gb Carcasa Disipador Ventilador Fuente Pi4</t>
+          <t>Samsung Galaxy S24 Ultra 512gb, 12gb Ram, Versión De México, En Español, No Importado, Cumple Con Las Nom</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-788975454-raspberry-pi-4-b-8gb-carcasa-disipador-ventilador-fuente-pi4-_JM#polycard_client=search-nordic&amp;position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-2137728731-samsung-galaxy-s24-ultra-512gb-12gb-ram-version-de-mexico-en-espanol-no-importado-cumple-con-las-nom-_JM_NoIndex_True?searchVariation=181583765750#polycard_client=search-nordic&amp;searchVariation=181583765750&amp;position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$2,547</t>
+          <t>$24,994</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Raspberry Pi 5 4gb RAM</t>
+          <t>Samsung Galaxy S24 128 Gb 8 Gb Ram Negro Ónix</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/raspberry-pi-5-4gb-ram/p/MLM34101441#polycard_client=search-nordic&amp;wid=MLM3198122510&amp;sid=search&amp;searchVariation=MLM34101441&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-3240246842-samsung-galaxy-s24-128-gb-8-gb-ram-negro-onix-_JM_NoIndex_True?searchVariation=181121773616#polycard_client=search-nordic&amp;searchVariation=181121773616&amp;position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$1,775</t>
+          <t>$10,949</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Protoshield Para Raspberry Pi 3b/4b</t>
+          <t>Samsung Galaxy S24 Fe Dual 256gb 8ram Mint</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-919190286-protoshield-para-raspberry-pi-3b4b-_JM#polycard_client=search-nordic&amp;position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-3400925720-samsung-galaxy-s24-fe-dual-256gb-8ram-mint-_JM_NoIndex_True?searchVariation=185326884275#polycard_client=search-nordic&amp;searchVariation=185326884275&amp;position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$520</t>
+          <t>$13,386</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Case De Plástico Abs Para Raspberry Pi 4, Electrónica</t>
+          <t>Samsung Galaxy S24 Plus (Exynos) Galaxy AI 5G Dual SIM 256 GB Gris mármol 12 GB RAM</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-739576519-case-de-plastico-abs-para-raspberry-pi-4-electronica-_JM#polycard_client=search-nordic&amp;position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-plus-exynos-galaxy-ai-5g-dual-sim-256-gb-gris-marmol-12-gb-ram/p/MLM33304636#polycard_client=search-nordic&amp;wid=MLM2015102509&amp;sid=search&amp;searchVariation=MLM33304636&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$139</t>
+          <t>$13,499</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pantalla Display Touch 7 Pulgadas Raspberry Pi 4 3b Original</t>
+          <t>Samsung Galaxy S24 Ultra 512gb 12ram Titanium Violeta + Silicone Case Samsung Galaxy S24 Ultra</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-775515662-pantalla-display-touch-7-pulgadas-raspberry-pi-4-3b-original-_JM#polycard_client=search-nordic&amp;position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-2121476201-samsung-galaxy-s24-ultra-512gb-12ram-titanium-violeta-silicone-case-samsung-galaxy-s24-ultra-_JM_NoIndex_True?searchVariation=184295462129#polycard_client=search-nordic&amp;searchVariation=184295462129&amp;position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$2,404</t>
+          <t>$20,519</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Raspberry Pi Pico Headers Rp2040 Mcu Pico H Rp 2040 Oficial</t>
+          <t>Samsung Galaxy S24 Plus 5G Dual SIM 512 GB Negro ónix 12 GB RAM</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-1702700457-raspberry-pi-pico-headers-rp2040-mcu-pico-h-rp-2040-oficial-_JM#polycard_client=search-nordic&amp;position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-plus-5g-dual-sim-512-gb-negro-onix-12-gb-ram/p/MLM29762012#polycard_client=search-nordic&amp;wid=MLM2859175834&amp;sid=search&amp;searchVariation=MLM29762012&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$189</t>
+          <t>$15,499</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Ventilador Doble Raspberry Pi 4 Disipador Aluminio Pi4 B</t>
+          <t>Celular Samsung Galaxy S24 Ultra, Cámara Cuádruple Hasta 200 Mp, Selfie De 12 Mp, Pantalla De 6.8 A 120 Hz, 256 Gb, 12 Gb De Ram, Esim Titanium Violet</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-717599918-ventilador-doble-raspberry-pi-4-disipador-aluminio-pi4-b-_JM#polycard_client=search-nordic&amp;position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-2177445593-celular-samsung-galaxy-s24-ultra-camara-cuadruple-hasta-200-mp-selfie-de-12-mp-pantalla-de-68-a-120-hz-256-gb-12-gb-de-ram-esim-titanium-violet-_JM_NoIndex_True?searchVariation=182125108978#polycard_client=search-nordic&amp;searchVariation=182125108978&amp;position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$258</t>
+          <t>$18,000</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fuente Eliminador Raspberry Pi 4 5v 3a Usb C Original</t>
+          <t>Samsung Galaxy S24 Ultra 256gb 12ram Titanium Grey + Power Adapter Samsung 25w</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-1373986010-fuente-eliminador-raspberry-pi-4-5v-3a-usb-c-original-_JM#polycard_client=search-nordic&amp;position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-3322185032-samsung-galaxy-s24-ultra-256gb-12ram-titanium-grey-power-adapter-samsung-25w-_JM_NoIndex_True?searchVariation=181433078252#polycard_client=search-nordic&amp;searchVariation=181433078252&amp;position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$241</t>
+          <t>$19,424</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Carcasa Raspberry Pi 4 Case Metal Doble Ventilador Disipador</t>
+          <t>Samsung Galaxy S23 Ultra 256GB Beige 8GB RAM</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-826035476-carcasa-raspberry-pi-4-case-metal-doble-ventilador-disipador-_JM#polycard_client=search-nordic&amp;position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s23-ultra-256gb-beige-8gb-ram/p/MLM22385437#polycard_client=search-nordic&amp;wid=MLM2271456828&amp;sid=search&amp;searchVariation=MLM22385437&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$432</t>
+          <t>$17,699</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Raspberry Pi 5 4gb Fuente Disipador Ventilador Sd Hdmi Kit</t>
+          <t>Samsung Galaxy S24 Ultra 256gb 12ram Titanium Black + Power Adapter Samsung 25w</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-3236638776-raspberry-pi-5-4gb-fuente-disipador-ventilador-sd-hdmi-kit-_JM#polycard_client=search-nordic&amp;position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-3322311948-samsung-galaxy-s24-ultra-256gb-12ram-titanium-black-power-adapter-samsung-25w-_JM_NoIndex_True?searchVariation=184397581401#polycard_client=search-nordic&amp;searchVariation=184397581401&amp;position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$2,740</t>
+          <t>$19,499</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Raspberry Pi 4 8gb Case Ventilador Sd 64gb Hdmi Pi4 B Kit</t>
+          <t>Samsung Galaxy S24+ 512gb 12ram Onyx Black + Silicone Case Samsung Galaxy S24 Plus</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-3146369968-raspberry-pi-4-8gb-case-ventilador-sd-64gb-hdmi-pi4-b-kit-_JM#polycard_client=search-nordic&amp;position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-3312994510-samsung-galaxy-s24-512gb-12ram-onyx-black-silicone-case-samsung-galaxy-s24-plus-_JM_NoIndex_True?searchVariation=181380579364#polycard_client=search-nordic&amp;searchVariation=181380579364&amp;position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$3,165</t>
+          <t>$16,349</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fuente Raspberry Pi 4b Cargador Usb C 5v 3a Pi 400 Original</t>
+          <t>Samsung Galaxy S24 Ultra 512gb 12ram Titanium Black + Silicone Case Samsung Galaxy S24 Ultra</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-2770061752-fuente-raspberry-pi-4b-cargador-usb-c-5v-3a-pi-400-original-_JM#polycard_client=search-nordic&amp;position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-3313208414-samsung-galaxy-s24-ultra-512gb-12ram-titanium-black-silicone-case-samsung-galaxy-s24-ultra-_JM_NoIndex_True?searchVariation=181380958318#polycard_client=search-nordic&amp;searchVariation=181380958318&amp;position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$298</t>
+          <t>$20,519</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Modulo Raspberry Pi Poe Hat Alimentacion Ethernet Pi4 Pi3 B+</t>
+          <t>Samsung Galaxy S24+ 256gb 12ram Marble Grey + Silicone Case Samsung Galaxy S24 Plus</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-923970749-modulo-raspberry-pi-poe-hat-alimentacion-ethernet-pi4-pi3-b-_JM#polycard_client=search-nordic&amp;position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-2121323311-samsung-galaxy-s24-256gb-12ram-marble-grey-silicone-case-samsung-galaxy-s24-plus-_JM_NoIndex_True?searchVariation=184291839743#polycard_client=search-nordic&amp;searchVariation=184291839743&amp;position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$872</t>
+          <t>$15,299</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Juego De Disipadores Para Raspberry Pi 4, Electrónica</t>
+          <t>Samsung Galaxy S24 Plus (Exynos) Galaxy AI 5G Dual SIM 512 GB Violeta 12 GB RAM</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-750206642-juego-de-disipadores-para-raspberry-pi-4-electronica-_JM#polycard_client=search-nordic&amp;position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-plus-exynos-galaxy-ai-5g-dual-sim-512-gb-violeta-12-gb-ram/p/MLM33304633#polycard_client=search-nordic&amp;wid=MLM2014998961&amp;sid=search&amp;searchVariation=MLM33304633&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$79</t>
+          <t>$15,449</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Cable Alimentación Para Raspberry Pi 4 Con Botón I/o Usb C</t>
+          <t>Samsung Galaxy S24 Plus 512gb 12ram Cobalt Violet + Power Adapter Samsung 25w</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-922408157-cable-alimentacion-para-raspberry-pi-4-con-boton-io-usb-c-_JM#polycard_client=search-nordic&amp;position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-3454716740-samsung-galaxy-s24-plus-512gb-12ram-cobalt-violet-power-adapter-samsung-25w-_JM_NoIndex_True?searchVariation=185992816801#polycard_client=search-nordic&amp;searchVariation=185992816801&amp;position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$84</t>
+          <t>$16,399</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Mini Ventilador Dual Para Raspberry Pi 4b / 3b 5v</t>
+          <t>Samsung Galaxy S24 5g Dual Sim 256 Gb Onyx Black 8 Gb Ram Open Box</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-925380441-mini-ventilador-dual-para-raspberry-pi-4b-3b-5v-_JM#polycard_client=search-nordic&amp;position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-3456468044-samsung-galaxy-s24-5g-dual-sim-256-gb-onyx-black-8-gb-ram-open-box-_JM_NoIndex_True?searchVariation=182182322376#polycard_client=search-nordic&amp;searchVariation=182182322376&amp;position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$151</t>
+          <t>$12,499</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Cable Micro Hdmi A Hdmi Raspberry Pi 4 B 4kp60 1m Oficial</t>
+          <t>Samsung Galaxy S24 Ultra 5G Dual SIM 512 GB gris titanio 12 GB RAM</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-824567109-cable-micro-hdmi-a-hdmi-raspberry-pi-4-b-4kp60-1m-oficial-_JM#polycard_client=search-nordic&amp;position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-ultra-5g-dual-sim-512-gb-gris-titanio-12-gb-ram/p/MLM29893909#polycard_client=search-nordic&amp;wid=MLM2849237418&amp;sid=search&amp;searchVariation=MLM29893909&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$225</t>
+          <t>$19,980</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Raspberry Pi 4 B 4gb Carcasa Case Eliminador Oficial Pi4 Kit</t>
+          <t>Samsung Galaxy S24 Plus 256 Gb  12 Gb Ram Violeta</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-734627017-raspberry-pi-4-b-4gb-carcasa-case-eliminador-oficial-pi4-kit-_JM#polycard_client=search-nordic&amp;position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-2161758657-samsung-galaxy-s24-plus-256-gb-12-gb-ram-violeta-_JM_NoIndex_True?searchVariation=185470323265#polycard_client=search-nordic&amp;searchVariation=185470323265&amp;position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$2,275</t>
+          <t>$14,109</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Cable Flex Csi Camara Raspberry Pi 2 3 4 60cm 15 Pines Exten</t>
+          <t>Samsung Galaxy S24 Plus Dual SIM 5G 256 GB Violeta 12 GB RAM</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-920686931-cable-flex-csi-camara-raspberry-pi-2-3-4-60cm-15-pines-exten-_JM#polycard_client=search-nordic&amp;position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-plus-dual-sim-5g-256-gb-violeta-12-gb-ram/p/MLM29723651#polycard_client=search-nordic&amp;wid=MLM2019498749&amp;sid=search&amp;searchVariation=MLM29723651&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$76</t>
+          <t>$14,015</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Kit Raspberry Pi 5 4gb +carcasa+fuente+hdmi Oficial</t>
+          <t>Samsung Galaxy S24 5G Dual SIM 256 GB amarillo ámbar 8 GB RAM</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-2072720947-kit-raspberry-pi-5-4gb-carcasafuentehdmi-oficial-_JM#polycard_client=search-nordic&amp;position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-5g-dual-sim-256-gb-amarillo-ambar-8-gb-ram/p/MLM29761875#polycard_client=search-nordic&amp;wid=MLM2171690779&amp;sid=search&amp;searchVariation=MLM29761875&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$3,155</t>
+          <t>$13,199</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Carcasa De Aluminio Argon One Raspberry Pi 4 V2</t>
+          <t>Samsung Galaxy S24 Ultra 5g (256 Gb) Color Violeta Titanio 12 Gb Ram / Liberado</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-926714229-carcasa-de-aluminio-argon-one-raspberry-pi-4-v2-_JM#polycard_client=search-nordic&amp;position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-3446763610-samsung-galaxy-s24-ultra-5g-256-gb-color-violeta-titanio-12-gb-ram-liberado-_JM_NoIndex_True?searchVariation=182123604954#polycard_client=search-nordic&amp;searchVariation=182123604954&amp;position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$921</t>
+          <t>$17,599</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Eliminador Raspberry Pi 4 Fuente Usb C 5v 3a Pi 400 Original</t>
+          <t>Smartphone Samsung Galaxy S24+ Ambar 512gb</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-2769845264-eliminador-raspberry-pi-4-fuente-usb-c-5v-3a-pi-400-original-_JM#polycard_client=search-nordic&amp;position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-3433708234-smartphone-samsung-galaxy-s24-ambar-512gb-_JM_NoIndex_True?searchVariation=182051480044#polycard_client=search-nordic&amp;searchVariation=182051480044&amp;position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$298</t>
+          <t>$26,999</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Raspberry Pi Pico W</t>
+          <t>Samsung Galaxy S24 Plus 5g (256 Gb)  Gris Mármol 12 Gb Ram / Liberado</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-1479911106-raspberry-pi-pico-w-_JM#polycard_client=search-nordic&amp;position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-3446773584-samsung-galaxy-s24-plus-5g-256-gb-gris-marmol-12-gb-ram-liberado-_JM_NoIndex_True?searchVariation=185926196781#polycard_client=search-nordic&amp;searchVariation=185926196781&amp;position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$208</t>
+          <t>$13,290</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Cable Adaptador Hdmi A Micro Hdmi 1.5m, Raspberry Pi 4</t>
+          <t>Samsung Galaxy S24 Plus 5g (256 Gb) Azul Zafiro 12 Gb Ram / Liberado</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-771386812-cable-adaptador-hdmi-a-micro-hdmi-15m-raspberry-pi-4-_JM#polycard_client=search-nordic&amp;position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-3446741878-samsung-galaxy-s24-plus-5g-256-gb-azul-zafiro-12-gb-ram-liberado-_JM_NoIndex_True?searchVariation=182123645294#polycard_client=search-nordic&amp;searchVariation=182123645294&amp;position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$94</t>
+          <t>$12,500</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Fuente Eliminador 5v 3a Usb C Raspberry Pi 4 B Cargador Pi4</t>
+          <t>Samsung Galaxy S23 256gb Lavanda ¡cargador, Mica Y Funda De Regalo!</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-714773978-fuente-eliminador-5v-3a-usb-c-raspberry-pi-4-b-cargador-pi4-_JM#polycard_client=search-nordic&amp;position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-3402678812-samsung-galaxy-s23-256gb-lavanda-cargador-mica-y-funda-de-regalo-_JM_NoIndex_True?searchVariation=185346974295#polycard_client=search-nordic&amp;searchVariation=185346974295&amp;position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$198</t>
+          <t>$9,550</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Raspberry Pi 4 4gb Fuente 5v 3a Case Ventilador Sd 32gb Kit</t>
+          <t>Samsung Galaxy S24 (esim) Galaxy Ai 128 Gb Amber Yellow 8 Gb Ram</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-954294702-raspberry-pi-4-4gb-fuente-5v-3a-case-ventilador-sd-32gb-kit-_JM#polycard_client=search-nordic&amp;position=51&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-2183484777-samsung-galaxy-s24-esim-galaxy-ai-128-gb-amber-yellow-8-gb-ram-_JM_NoIndex_True?searchVariation=182205256950#polycard_client=search-nordic&amp;searchVariation=182205256950&amp;position=51&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$2,414</t>
+          <t>$30,001</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Cargador Eliminador Raspberry Pi 4 Tipo C 5v A 3a</t>
+          <t>Samsung Galaxy S24 Ultra 256gb 12ram Titanium Black + Silicone Case Samsung Galaxy S24 Ultra</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-917735293-cargador-eliminador-raspberry-pi-4-tipo-c-5v-a-3a-_JM#polycard_client=search-nordic&amp;position=52&amp;search_layout=stack&amp;type=item&amp;tracking_id=a833c97e-1c8e-4493-a0c6-853699d2d8ec</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-3313125058-samsung-galaxy-s24-ultra-256gb-12ram-titanium-black-silicone-case-samsung-galaxy-s24-ultra-_JM_NoIndex_True?searchVariation=184294016577#polycard_client=search-nordic&amp;searchVariation=184294016577&amp;position=52&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$159</t>
+          <t>$19,424</t>
         </is>
       </c>
     </row>

--- a/productos_mercadolibre.xlsx
+++ b/productos_mercadolibre.xlsx
@@ -453,884 +453,884 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S24 5g Dual Sim 128 Gb Gris Mármol 8 Gb Ram</t>
+          <t>Kit De Componentes Electrónicos Para Arduino, Raspberry Pi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://click1.mercadolibre.com.mx/mclics/clicks/external/MLM/count?a=LuVTMlJs9kSkh2K3Y5MoLD1loodAggdoERlrrxk1G%2B9lrghs83u%2B%2Fx0irExzv0sgNW7WrbNNHmtS4W8xt2IgEQhJ2loMdL%2BZ6Hl%2B9enD5k7kZfJzDfGRvef4cot0%2F8uubWUaX2vuva0hEJwSqitsBNqCQtdWqQ6jEvePBvPoo4xxgwKYhsacjZ%2Fp7wqWEyOCmu26EcH%2BKcXVOV10F97R%2F5qDZjTlouOQ089%2BV%2FvYe6XT%2BMlzyaXdbIjDdgidc4NxVYd9PKubLJRQEer0U9cMqEIRO81M6UMorcJzzcZSM1Acwf%2BzywAmQThuwZJeNcJ5MP2cb4CqYrK3FGrncOPYA51GcUmq1OVmS1PoaJJBHOJ%2BOh%2BO%2F9ZwqVjsPUJzJ8q911EST3%2B9rv6oypBkAboGZsjrXuk52V9WKfjXHYn%2Be8Af8JWMhtMLXiArH6hrI9RDniJrquLWhbN2%2FMqrR3WbpyMrRlKFnm3AQ%2BYBmKO6BsSPsGoQ60j3RtzO0LZBIE4de4jPuxEpZoToT3J%2BvC6l2ySk8DVy5SYit9TjcQy26iNCBlhcJWLu0lHzNHTEYE63UjOMt%2FDXEMfNJlcYgH4uQwXxdS%2FRJaAFfleqpkNCFxWqrv%2BBmX6EsRsAGjBbe72EUEa54sO319bgtixEphIXlbXY9uwQIC0X8PJEqMHbsF6SNuaba6b57xdg8%2BU%2Bm766q56XyHDMTVu1eE2vqbJD8R5arDlVJOO4Hd3vqqagJC%2FFxx3ujIGe1jgI3lNNIy%2Fw4ewOjWIQh9HrmXbJCYeTsQkPgdTr%2BQd1iiff&amp;rb=x#polycard_client=search-nordic&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://click1.mercadolibre.com.mx/mclics/clicks/external/MLM/count?a=wdUxJoQy%2B%2B5bUndwc6y9UFgAHn1AEUs88Z9AXwdNxlfWUaULZHPTl2b0ajtRJagl95Zrx28HZl3C7iTTJt2rWlQFxF7je07eG7wXMF3MBU9Kkjr%2BQNeg2D6ifCFOkum8TT%2FdJ1aNJuarp%2FCrS0Q6g9dTaxopTuM6kvBqxV5ClYNRP2eES4Q5qFHIDXdAeUwImQUn1n7CJppGw2iYjkKxmwMAgI9kCzZZwdRIEidVGozCxuCN6yxZyrNPWCpthXd9U4qEr9IQo5B7GUdcSdHprwjQzwAZf1gAvP48F22DKwye6HxERAaztWwYb9MF6pkjV3BAmtRK%2FaTcvLkI60f2YLkss7QtJ0FrxBfnUWvNXjxFo6f%2F9Jlf2lBKfICV2%2Bz%2FkYuRsCZBYdazhfwOsiszVGE0oDon1428HoaIR2eL5O7Wk%2F%2FvYNG%2F7YwP6%2B03OpWK4O7thH%2FX43Ees1RtghbimaqkR9Otx%2FVtGObsaC5d6xz1oIvlGnKc4o45t7fRRZWbeCRQaeKZCLXptQWJV6l3J2wsGsuegizaOMLZX4AGzLAOW%2BHnDjg%2BUwg30iCfmaR92iXyFGgITLXzvHUY%2BG5EYSz2fHeN9kXKBsP79cJMyGAYalSJ4uTYMC0qqtXCT%2F03mUU69LHlAAz3eI8hA3qcnnLxItG6G46Gqab60nVhJqsHMB2bF83U0z0qFNPFblfqX60%3D&amp;rb=x#polycard_client=search-nordic&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$10,639</t>
+          <t>$179</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 5g Dual Sim 256 Gb Onyx Black 8 Gb Ram</t>
+          <t>Juego De Disipadores Para Raspberry Pi 4, Electrónica</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://click1.mercadolibre.com.mx/mclics/clicks/external/MLM/count?a=nILhlDhSoAFS0Bk8TDrLc8dZ4A%2FgyqDbnrXZw%2F62btjpoMoojxYJVnK9D5dzRxlKZ5w9itwFzGl%2Fr8hNhmEMoFGFk5Hn5yKUwa1Bjn6S4woO1ougzZbOIjqjnFN0pr8jDq49AxpAfG7uM5FTMk6E9oTWkEY0AXBL9ffs%2BtgEv1cQ1uXhuOMjdl6BluqvZVkYX%2Be4Kpjoq4hNz%2BsXH66TXCX1sV9%2BXDx%2FZcR7Buxkk1Y5PjmX3EFGye2etbGdxZ4jqxkYPom%2Bem77bhFRW%2FtmtYqbw6Tti7OiO6ihtzqj2jNiz3gsT%2BR0Ij%2Bi6M75KNAxb3ku9ceTmGPaQMEX7kCaH8k8U7iD2bb68jWRysmTlpRdIxRofcMZSQrsy7nwz2PVkfwNutETp7v7a%2Fu9JEVka4JzmSQ3xStxKHROIpWEoRXl%2BzcMIg8m5vBXsefc4WQrsgbPshsmMxB9WgZHXiCU4N5dEeJQ2sUDQNd%2B0kfxnAJVcU9mpaAT5jMW2dLDD8oo1nyvH4hj8VuHMfBC3wBDjg%2BF2HIygoy0wBtFu8YvTdOkkkMW6cqi5nQEwLu2ze9jv0cN%2FeAm54iq27K1a1pGjPle7O8u0P5qdsohEz6EtYf7AtgnOXQsSPGe9tZ4NfM8O86iTYV5CfJti4wPLhw58wB1%2FV6CwUm%2Fo4yx5g8i3yeuc61YkuYbXS1I1ue2Ny3z%2BIbr7ejI1gBSYJsnoy6zcD%2BEofiK4C5O%2FFqFFnOTI9dVUXOJW09KyPOCN6%2B5E0uNWTFMo0YKwI%2FX1n7WkcpKSdSUiA%3D%3D&amp;rb=x#polycard_client=search-nordic&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://click1.mercadolibre.com.mx/mclics/clicks/external/MLM/count?a=eX321WTsc3TEvbVMzKq6hP1U7jp0CrK0XsXR1lJdzqRlF%2FJr9KBsyg6mfnxQfQPCB%2BWB4rCnVyPe5pS%2BCBz2Q%2B0zsH%2BM%2F%2Fg9rj55LrKH5XdtJdAfNIXHXN%2FI9ERuYJRudssY%2FCXTCJVWBaH7A3YEzlspn7Ar87t6BUuVY6f4htokEoiEullnegf0DlDnC8ZVP8EKJ%2F%2FCo%2FpO%2BvL3lAOFxGyvbesUHsvrJN7CW0DIj9Og0IbDZBmMZZpWJ2ONMEr9gWOkyRt17huMTyeBg%2B3ZepQR137zosyrSfb7yfmADzTi70BAezFsVsGXKcHEsFhjjgOmrHk%2FFXRFPvYfkVRSW7St%2BmxPbh4FR1BEtPIwhijsM690sg9wewXU8c6zX3AlUHpn8vcY6eZLYqoovnW0Yiw5vuQLJ%2B5VyK04svSkUhqMUk7vmpVByJ7Ou%2BP7RWy8nymbTJE8jlcQMbVfTZatu81jsIuKwCja8fbgtKIu82hlf%2BWdygz%2Byb%2BuGJBd3WZMpA3bNXr1QWqmAw2bYl16oCPRAHCtOwbBBKkS5gDAnpmkMmN808CABWgatFRM3h6uB9Jskk0rV%2BDCiHQqE9RYTKN6gCe1vpkviGSIGj833%2FvRl62xxgAXj4%2BKwkQrVhaD9CFHtynf4VTXPayhj6uWlzzcsfr99KAA88Qpqc2R4LIoeqvbfxjMRaFy&amp;rb=x#polycard_client=search-nordic&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$10,412</t>
+          <t>$71</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A35 5G 256 GB Azul oscuro 8 GB RAM</t>
+          <t>REXQualis Kit Componentes Electronicos Para Arduino, Raspberry Pi Con Módulo De Fuente De Alimentación, Cable De Puente, Placa De Pruebas De 830 Puntos De Unión, Potenciómetro De Precisión, Resistenci</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/samsung-galaxy-a35-5g-256-gb-azul-oscuro-8-gb-ram/p/MLM34729843#polycard_client=search-nordic&amp;wid=MLM3073375226&amp;sid=search&amp;searchVariation=MLM34729843&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://www.mercadolibre.com.mx/rexqualis-kit-componentes-electronicos-para-arduino-raspberry-pi-con-modulo-de-fuente-de-alimentacion-cable-de-puente-placa-de-pruebas-de-830-puntos-de-union-potenciometro-de-precision-resistenci/p/MLM36748174#polycard_client=search-nordic&amp;wid=MLM3062846500&amp;sid=search&amp;searchVariation=MLM36748174&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$5,399</t>
+          <t>$236</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 5G Dual SIM 256 GB cobalt violet 8 GB RAM</t>
+          <t>Raspberry Placa Desarrollo Pi Pico W Rp2040 Con Wifi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-5g-dual-sim-256-gb-cobalt-violet-8-gb-ram/p/MLM29701050#polycard_client=search-nordic&amp;wid=MLM2014390343&amp;sid=search&amp;searchVariation=MLM29701050&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://www.mercadolibre.com.mx/raspberry-placa-desarrollo-pi-pico-w-rp2040-con-wifi/p/MLM34289250#polycard_client=search-nordic&amp;wid=MLM3136307880&amp;sid=search&amp;searchVariation=MLM34289250&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$13,149</t>
+          <t>$170</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Fe 256gb 8gb 5g Mint</t>
+          <t>Raspberry Pi 5 (8 Gb)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-fe-256gb-8gb-5g-mint/p/MLM41987932#polycard_client=search-nordic&amp;wid=MLM3459000768&amp;sid=search&amp;searchVariation=MLM41987932&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://www.mercadolibre.com.mx/raspberry-pi-5-8-gb/p/MLM32625223#polycard_client=search-nordic&amp;wid=MLM3056655140&amp;sid=search&amp;searchVariation=MLM32625223&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$11,839</t>
+          <t>$2,190</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Ultra 5G Dual SIM 1 TB violeta titanio 12 GB RAM</t>
+          <t>Raspberry Pi 4 Modelo B 4gb Ram</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-ultra-5g-dual-sim-1-tb-violeta-titanio-12-gb-ram/p/MLM29893918#polycard_client=search-nordic&amp;wid=MLM2161998383&amp;sid=search&amp;searchVariation=MLM29893918&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://www.mercadolibre.com.mx/raspberry-pi-4-modelo-b-4gb-ram/p/MLM33005781#polycard_client=search-nordic&amp;wid=MLM2878701236&amp;sid=search&amp;searchVariation=MLM33005781&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$35,399</t>
+          <t>$1,490</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 (eSIM) 5G Dual SIM 256 GB gris mármol 8 GB RAM</t>
+          <t>Kit De Componentes Electrónicos Para Arduino, Raspberry Pi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-esim-5g-dual-sim-256-gb-gris-marmol-8-gb-ram/p/MLM29805718#polycard_client=search-nordic&amp;wid=MLM2014062263&amp;sid=search&amp;searchVariation=MLM29805718&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-2085391795-kit-de-componentes-electronicos-para-arduino-raspberry-pi-_JM#polycard_client=search-nordic&amp;position=14&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$13,149</t>
+          <t>$179</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 5G Dual SIM 128 GB onyx black 8 GB RAM</t>
+          <t>Raspberry Pi 4 B Carcasa Case Disipador Aluminio Doble Ventilador Pi4</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-5g-dual-sim-128-gb-onyx-black-8-gb-ram/p/MLM29700518#polycard_client=search-nordic&amp;wid=MLM3383007050&amp;sid=search&amp;searchVariation=MLM29700518&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-711345687-raspberry-pi-4-b-carcasa-case-disipador-aluminio-doble-ventilador-pi4-_JM#polycard_client=search-nordic&amp;position=15&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$12,876</t>
+          <t>$423</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Ultra 256gb 12gb Ram Titanium Black</t>
+          <t>Carcasa Aluminio Raspberry Pi 4 Case Ventilador Pi4 B Kit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-ultra-256gb-12gb-ram-titanium-black/p/MLM37346312#polycard_client=search-nordic&amp;wid=MLM2038547973&amp;sid=search&amp;searchVariation=MLM37346312&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-1822760237-carcasa-aluminio-raspberry-pi-4-case-ventilador-pi4-b-kit-_JM#polycard_client=search-nordic&amp;position=16&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$20,249</t>
+          <t>$298</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24, Galaxy Ai, Gris Marmol 8GB RAM 256GB</t>
+          <t>Fuente Eliminador 5v 3a Usb C Raspberry Pi 4 B Cargador Pi4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-galaxy-ai-gris-marmol-8gb-ram-256gb/p/MLM34295457#polycard_client=search-nordic&amp;wid=MLM3427932142&amp;sid=search&amp;searchVariation=MLM34295457&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-714773978-fuente-eliminador-5v-3a-usb-c-raspberry-pi-4-b-cargador-pi4-_JM#polycard_client=search-nordic&amp;position=17&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$12,999</t>
+          <t>$182</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Fe 8 Gb Ram 256 Gb Rom 5g Gris</t>
+          <t>Raspberry Pi 4 8gb Carcasa Ventilador Sd 32gb Hdmi Pi4 B Kit</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-fe-8-gb-ram-256-gb-rom-5g-gris/p/MLM41747367#polycard_client=search-nordic&amp;wid=MLM2182717773&amp;sid=search&amp;searchVariation=MLM41747367&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-1422838162-raspberry-pi-4-8gb-carcasa-ventilador-sd-32gb-hdmi-pi4-b-kit-_JM#polycard_client=search-nordic&amp;position=18&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$11,839</t>
+          <t>$2,985</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Plus 512gb 12ram Cobalt Violet</t>
+          <t>Raspberry Pi4 4gb Case Ventilador Sd 32gb Hdmi Pi 4 B Kit</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-3461443352-samsung-galaxy-s24-plus-512gb-12ram-cobalt-violet-_JM_NoIndex_True?searchVariation=186038451565#polycard_client=search-nordic&amp;searchVariation=186038451565&amp;position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-756165002-raspberry-pi4-4gb-case-ventilador-sd-32gb-hdmi-pi-4-b-kit-_JM#polycard_client=search-nordic&amp;position=19&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$7,500</t>
+          <t>$2,415</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 (Dual eSIM) 5G Dual SIM 256 GB amarillo ámbar 8 GB RAM</t>
+          <t>Raspberry Sc15184 Pi 4 Model B 2019 Quad Core 64 Bit Wifi 2GB</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-dual-esim-5g-dual-sim-256-gb-amarillo-ambar-8-gb-ram/p/MLM29882668#polycard_client=search-nordic&amp;wid=MLM3400988856&amp;sid=search&amp;searchVariation=MLM29882668&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://www.mercadolibre.com.mx/raspberry-sc15184-pi-4-model-b-2019-quad-core-64-bit-wifi-2gb/p/MLM32602253#polycard_client=search-nordic&amp;wid=MLM3236651508&amp;sid=search&amp;searchVariation=MLM32602253&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$12,999</t>
+          <t>$1,290</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Ultra 5g Dual Sim 256 Gb Violeta Titanio 12 Gb Ram.</t>
+          <t>Raspberry Pi3 B Quadcore 1.2 GHz Hdmi 4 USB</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-3461479214-samsung-galaxy-s24-ultra-5g-dual-sim-256-gb-violeta-titanio-12-gb-ram-_JM_NoIndex_True?searchVariation=182207988674#polycard_client=search-nordic&amp;searchVariation=182207988674&amp;position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://www.mercadolibre.com.mx/raspberry-pi3-b-quadcore-12-ghz-hdmi-4-usb/p/MLM32895433#polycard_client=search-nordic&amp;wid=MLM3105357840&amp;sid=search&amp;searchVariation=MLM32895433&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$8,600</t>
+          <t>$1,200</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Ultra 5g Dual Sim 512 Gb Gris Titanio 12 Gb Ram</t>
+          <t>Raspberry Pi Pico W Headers Microcontrolador Rp2040 Wifi Kit</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-3461530180-samsung-galaxy-s24-ultra-5g-dual-sim-512-gb-gris-titanio-12-gb-ram-_JM_NoIndex_True?searchVariation=182207929432#polycard_client=search-nordic&amp;searchVariation=182207929432&amp;position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-1526583785-raspberry-pi-pico-w-headers-microcontrolador-rp2040-wifi-kit-_JM#polycard_client=search-nordic&amp;position=20&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$8,999</t>
+          <t>$345</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Ultra 512gb 12ram Titanium Black + Power Adapter Samsung 25w</t>
+          <t>330ohms Raspberry Pi 3 Modelo B</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-3322237816-samsung-galaxy-s24-ultra-512gb-12ram-titanium-black-power-adapter-samsung-25w-_JM_NoIndex_True?searchVariation=184397704023#polycard_client=search-nordic&amp;searchVariation=184397704023&amp;position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://www.mercadolibre.com.mx/330ohms-raspberry-pi-3-modelo-b/p/MLM37504249#polycard_client=search-nordic&amp;wid=MLM3309110070&amp;sid=search&amp;searchVariation=MLM37504249&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$20,519</t>
+          <t>$1,361</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 5g 256 Gb Negro Ónix</t>
+          <t>Raspberry Pi 4 2gb Ram</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-3295701444-samsung-galaxy-s24-5g-256-gb-negro-onix-_JM_NoIndex_True?searchVariation=181303068420#polycard_client=search-nordic&amp;searchVariation=181303068420&amp;position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://www.mercadolibre.com.mx/raspberry-pi-4-2gb-ram/p/MLM33317168#polycard_client=search-nordic&amp;wid=MLM2125979509&amp;sid=search&amp;searchVariation=MLM33317168&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$12,239</t>
+          <t>$1,290</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 256 Gb 8 Gb Ram Violeta</t>
+          <t>Ventilador Doble Raspberry Pi 4 Disipador Aluminio Pi4 B</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-2141171385-samsung-galaxy-s24-256-gb-8-gb-ram-violeta-_JM_NoIndex_True?searchVariation=181626519270#polycard_client=search-nordic&amp;searchVariation=181626519270&amp;position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-717599918-ventilador-doble-raspberry-pi-4-disipador-aluminio-pi4-b-_JM#polycard_client=search-nordic&amp;position=21&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$11,999</t>
+          <t>$237</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 256 Gb 8 Gb Ram Gris Marmol</t>
+          <t>Raspberry Pi 5 4gb Case Ventilador Sd 64gb Hdmi Pi5 Kit</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-3309092904-samsung-galaxy-s24-256-gb-8-gb-ram-gris-marmol-_JM_NoIndex_True?searchVariation=181354676230#polycard_client=search-nordic&amp;searchVariation=181354676230&amp;position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-3301235948-raspberry-pi-5-4gb-case-ventilador-sd-64gb-hdmi-pi5-kit-_JM#polycard_client=search-nordic&amp;position=22&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$11,999</t>
+          <t>$2,507</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Ultra Titanio (256gb) Original Grado A</t>
+          <t>Eliminador Oficial Raspberry Pi 4 5v 3a Usb C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-2174611083-samsung-galaxy-s24-ultra-titanio-256gb-original-grado-a-_JM_NoIndex_True?searchVariation=182093831104#polycard_client=search-nordic&amp;searchVariation=182093831104&amp;position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-1591119889-eliminador-oficial-raspberry-pi-4-5v-3a-usb-c-_JM#polycard_client=search-nordic&amp;position=23&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$18,590</t>
+          <t>$240</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold5 5G Dual SIM 256 GB phantom black 12 GB RAM</t>
+          <t>Puente H Bts7960 43a Arduino Raspberry Pi Esp32</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/samsung-galaxy-z-fold5-5g-dual-sim-256-gb-phantom-black-12-gb-ram/p/MLM25864697#polycard_client=search-nordic&amp;wid=MLM3280221174&amp;sid=search&amp;searchVariation=MLM25864697&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-3402360598-puente-h-bts7960-43a-arduino-raspberry-pi-esp32-_JM#polycard_client=search-nordic&amp;position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$25,027</t>
+          <t>$114</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Plus (Dual eSIM) 5G 256 GB gris mármol 12 GB RAM</t>
+          <t>Juego De Disipadores Para Raspberry Pi 4, Electrónica</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-plus-dual-esim-5g-256-gb-gris-marmol-12-gb-ram/p/MLM29900351#polycard_client=search-nordic&amp;wid=MLM2063469077&amp;sid=search&amp;searchVariation=MLM29900351&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-750206642-juego-de-disipadores-para-raspberry-pi-4-electronica-_JM#polycard_client=search-nordic&amp;position=25&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$17,799</t>
+          <t>$71</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 256gb 8ram Onyx Black + Power Adapter Samsung 25w</t>
+          <t>Cámara Raspberry Pi 4/3 1080p 720p 5mp (con Base/soporte)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-2124774423-samsung-galaxy-s24-256gb-8ram-onyx-black-power-adapter-samsung-25w-_JM_NoIndex_True?searchVariation=181432960594#polycard_client=search-nordic&amp;searchVariation=181432960594&amp;position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-1916891675-camara-raspberry-pi-43-1080p-720p-5mp-con-basesoporte-_JM#polycard_client=search-nordic&amp;position=26&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$13,799</t>
+          <t>$299</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Ultra 512gb 12ram Titanium Grey + Silicone Case Samsung Galaxy S24 Ultra</t>
+          <t>Cable Hdmi A Micro Hdmi Raspberry Pi 4</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-3313208748-samsung-galaxy-s24-ultra-512gb-12ram-titanium-grey-silicone-case-samsung-galaxy-s24-ultra-_JM_NoIndex_True?searchVariation=181380959416#polycard_client=search-nordic&amp;searchVariation=181380959416&amp;position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-714946852-cable-hdmi-a-micro-hdmi-raspberry-pi-4-_JM#polycard_client=search-nordic&amp;position=27&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$21,957</t>
+          <t>$113</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Plus 256gb 12ram Cobalt Violet + Power Adapter Samsung 25w</t>
+          <t>Disipadores Para Raspberry Pi (kit De 4 Piezas)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-2124775279-samsung-galaxy-s24-plus-256gb-12ram-cobalt-violet-power-adapter-samsung-25w-_JM_NoIndex_True?searchVariation=181432964018#polycard_client=search-nordic&amp;searchVariation=181432964018&amp;position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-1474315981-disipadores-para-raspberry-pi-kit-de-4-piezas-_JM#polycard_client=search-nordic&amp;position=28&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$15,674</t>
+          <t>$76</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Ultra 512gb, 12gb Ram, Versión De México, En Español, No Importado, Cumple Con Las Nom</t>
+          <t>Disipadores De Calor Raspberry Pi 4 B Aluminio 4 Piezas Kit</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-2137728731-samsung-galaxy-s24-ultra-512gb-12gb-ram-version-de-mexico-en-espanol-no-importado-cumple-con-las-nom-_JM_NoIndex_True?searchVariation=181583765750#polycard_client=search-nordic&amp;searchVariation=181583765750&amp;position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-1730531384-disipadores-de-calor-raspberry-pi-4-b-aluminio-4-piezas-kit-_JM#polycard_client=search-nordic&amp;position=29&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$24,994</t>
+          <t>$67</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 128 Gb 8 Gb Ram Negro Ónix</t>
+          <t>Carcasa para Raspberry Pi 4 con Ventilador Disipadores Calor en kit Case Negro</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-3240246842-samsung-galaxy-s24-128-gb-8-gb-ram-negro-onix-_JM_NoIndex_True?searchVariation=181121773616#polycard_client=search-nordic&amp;searchVariation=181121773616&amp;position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://www.mercadolibre.com.mx/carcasa-para-raspberry-pi-4-con-ventilador-disipadores-calor-en-kit-case-negro/p/MLM36039600#polycard_client=search-nordic&amp;wid=MLM3027969232&amp;sid=search&amp;searchVariation=MLM36039600&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$10,949</t>
+          <t>$381</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Fe Dual 256gb 8ram Mint</t>
+          <t>Raspberry Pi 5 4gb Fuente Disipador Ventilador Sd Hdmi Kit</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-3400925720-samsung-galaxy-s24-fe-dual-256gb-8ram-mint-_JM_NoIndex_True?searchVariation=185326884275#polycard_client=search-nordic&amp;searchVariation=185326884275&amp;position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-3236638776-raspberry-pi-5-4gb-fuente-disipador-ventilador-sd-hdmi-kit-_JM#polycard_client=search-nordic&amp;position=30&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$13,386</t>
+          <t>$2,740</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Plus (Exynos) Galaxy AI 5G Dual SIM 256 GB Gris mármol 12 GB RAM</t>
+          <t>Raspberry Pi 4 Modelo B 8gb Ram</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-plus-exynos-galaxy-ai-5g-dual-sim-256-gb-gris-marmol-12-gb-ram/p/MLM33304636#polycard_client=search-nordic&amp;wid=MLM2015102509&amp;sid=search&amp;searchVariation=MLM33304636&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-3054111684-raspberry-pi-4-modelo-b-8gb-ram-_JM#polycard_client=search-nordic&amp;position=31&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$13,499</t>
+          <t>$1,990</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Ultra 512gb 12ram Titanium Violeta + Silicone Case Samsung Galaxy S24 Ultra</t>
+          <t>Disipadores De Calor Raspberry Pi4 Cobre Smd Cpu Pi 4 B Kit</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-2121476201-samsung-galaxy-s24-ultra-512gb-12ram-titanium-violeta-silicone-case-samsung-galaxy-s24-ultra-_JM_NoIndex_True?searchVariation=184295462129#polycard_client=search-nordic&amp;searchVariation=184295462129&amp;position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-755460645-disipadores-de-calor-raspberry-pi4-cobre-smd-cpu-pi-4-b-kit-_JM#polycard_client=search-nordic&amp;position=32&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$20,519</t>
+          <t>$99</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Plus 5G Dual SIM 512 GB Negro ónix 12 GB RAM</t>
+          <t>Mini Ventilador Dual Para Raspberry Pi 4b / 3b 5v</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-plus-5g-dual-sim-512-gb-negro-onix-12-gb-ram/p/MLM29762012#polycard_client=search-nordic&amp;wid=MLM2859175834&amp;sid=search&amp;searchVariation=MLM29762012&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-925380441-mini-ventilador-dual-para-raspberry-pi-4b-3b-5v-_JM#polycard_client=search-nordic&amp;position=33&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$15,499</t>
+          <t>$151</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S24 Ultra, Cámara Cuádruple Hasta 200 Mp, Selfie De 12 Mp, Pantalla De 6.8 A 120 Hz, 256 Gb, 12 Gb De Ram, Esim Titanium Violet</t>
+          <t>Protoshield Para Raspberry Pi 3b/4b</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-2177445593-celular-samsung-galaxy-s24-ultra-camara-cuadruple-hasta-200-mp-selfie-de-12-mp-pantalla-de-68-a-120-hz-256-gb-12-gb-de-ram-esim-titanium-violet-_JM_NoIndex_True?searchVariation=182125108978#polycard_client=search-nordic&amp;searchVariation=182125108978&amp;position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-919190286-protoshield-para-raspberry-pi-3b4b-_JM#polycard_client=search-nordic&amp;position=34&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$18,000</t>
+          <t>$468</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Ultra 256gb 12ram Titanium Grey + Power Adapter Samsung 25w</t>
+          <t>Raspberry Pi 4 8gb Case Ventilador Sd 64gb Hdmi Pi4 B Kit</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-3322185032-samsung-galaxy-s24-ultra-256gb-12ram-titanium-grey-power-adapter-samsung-25w-_JM_NoIndex_True?searchVariation=181433078252#polycard_client=search-nordic&amp;searchVariation=181433078252&amp;position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-3146369968-raspberry-pi-4-8gb-case-ventilador-sd-64gb-hdmi-pi4-b-kit-_JM#polycard_client=search-nordic&amp;position=35&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$19,424</t>
+          <t>$3,165</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S23 Ultra 256GB Beige 8GB RAM</t>
+          <t>Fuente Raspberry Pi 4b Cargador Usb C 5v 3a Pi 400 Original</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s23-ultra-256gb-beige-8gb-ram/p/MLM22385437#polycard_client=search-nordic&amp;wid=MLM2271456828&amp;sid=search&amp;searchVariation=MLM22385437&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-2770061752-fuente-raspberry-pi-4b-cargador-usb-c-5v-3a-pi-400-original-_JM#polycard_client=search-nordic&amp;position=36&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$17,699</t>
+          <t>$298</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Ultra 256gb 12ram Titanium Black + Power Adapter Samsung 25w</t>
+          <t>Raspberry Pi Pico Headers Rp2040 Mcu Pico H Rp 2040 Oficial</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-3322311948-samsung-galaxy-s24-ultra-256gb-12ram-titanium-black-power-adapter-samsung-25w-_JM_NoIndex_True?searchVariation=184397581401#polycard_client=search-nordic&amp;searchVariation=184397581401&amp;position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-1702700457-raspberry-pi-pico-headers-rp2040-mcu-pico-h-rp-2040-oficial-_JM#polycard_client=search-nordic&amp;position=37&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$19,499</t>
+          <t>$189</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24+ 512gb 12ram Onyx Black + Silicone Case Samsung Galaxy S24 Plus</t>
+          <t>Raspberry Pi 4 B 8gb Carcasa Disipador Ventilador Fuente Pi4</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-3312994510-samsung-galaxy-s24-512gb-12ram-onyx-black-silicone-case-samsung-galaxy-s24-plus-_JM_NoIndex_True?searchVariation=181380579364#polycard_client=search-nordic&amp;searchVariation=181380579364&amp;position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-788975454-raspberry-pi-4-b-8gb-carcasa-disipador-ventilador-fuente-pi4-_JM#polycard_client=search-nordic&amp;position=38&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$16,349</t>
+          <t>$2,547</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Ultra 512gb 12ram Titanium Black + Silicone Case Samsung Galaxy S24 Ultra</t>
+          <t>Raspberry Pi 4 B 4gb - Fuente Carcasa Oficial Disipador Kit</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-3313208414-samsung-galaxy-s24-ultra-512gb-12ram-titanium-black-silicone-case-samsung-galaxy-s24-ultra-_JM_NoIndex_True?searchVariation=181380958318#polycard_client=search-nordic&amp;searchVariation=181380958318&amp;position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-776692950-raspberry-pi-4-b-4gb-fuente-carcasa-oficial-disipador-kit-_JM#polycard_client=search-nordic&amp;position=39&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$20,519</t>
+          <t>$2,254</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24+ 256gb 12ram Marble Grey + Silicone Case Samsung Galaxy S24 Plus</t>
+          <t>Fuente Eliminador Raspberry Pi 4 5v 3a Usb C Original</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-2121323311-samsung-galaxy-s24-256gb-12ram-marble-grey-silicone-case-samsung-galaxy-s24-plus-_JM_NoIndex_True?searchVariation=184291839743#polycard_client=search-nordic&amp;searchVariation=184291839743&amp;position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-1373986010-fuente-eliminador-raspberry-pi-4-5v-3a-usb-c-original-_JM#polycard_client=search-nordic&amp;position=40&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$15,299</t>
+          <t>$241</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Plus (Exynos) Galaxy AI 5G Dual SIM 512 GB Violeta 12 GB RAM</t>
+          <t>Raspberry Pi 5 4gb RAM</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-plus-exynos-galaxy-ai-5g-dual-sim-512-gb-violeta-12-gb-ram/p/MLM33304633#polycard_client=search-nordic&amp;wid=MLM2014998961&amp;sid=search&amp;searchVariation=MLM33304633&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://www.mercadolibre.com.mx/raspberry-pi-5-4gb-ram/p/MLM34101441#polycard_client=search-nordic&amp;wid=MLM3198122510&amp;sid=search&amp;searchVariation=MLM34101441&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$15,449</t>
+          <t>$1,775</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Plus 512gb 12ram Cobalt Violet + Power Adapter Samsung 25w</t>
+          <t>Case De Plástico Abs Para Raspberry Pi 4, Electrónica</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-3454716740-samsung-galaxy-s24-plus-512gb-12ram-cobalt-violet-power-adapter-samsung-25w-_JM_NoIndex_True?searchVariation=185992816801#polycard_client=search-nordic&amp;searchVariation=185992816801&amp;position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-739576519-case-de-plastico-abs-para-raspberry-pi-4-electronica-_JM#polycard_client=search-nordic&amp;position=41&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$16,399</t>
+          <t>$125</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 5g Dual Sim 256 Gb Onyx Black 8 Gb Ram Open Box</t>
+          <t>Cable Flex Csi Camara Raspberry Pi 2 3 4 60cm 15 Pines Exten</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-3456468044-samsung-galaxy-s24-5g-dual-sim-256-gb-onyx-black-8-gb-ram-open-box-_JM_NoIndex_True?searchVariation=182182322376#polycard_client=search-nordic&amp;searchVariation=182182322376&amp;position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-920686931-cable-flex-csi-camara-raspberry-pi-2-3-4-60cm-15-pines-exten-_JM#polycard_client=search-nordic&amp;position=42&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$12,499</t>
+          <t>$76</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Ultra 5G Dual SIM 512 GB gris titanio 12 GB RAM</t>
+          <t>Pantalla Display Touch 7 Pulgadas Raspberry Pi 4 3b Original</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-ultra-5g-dual-sim-512-gb-gris-titanio-12-gb-ram/p/MLM29893909#polycard_client=search-nordic&amp;wid=MLM2849237418&amp;sid=search&amp;searchVariation=MLM29893909&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-775515662-pantalla-display-touch-7-pulgadas-raspberry-pi-4-3b-original-_JM#polycard_client=search-nordic&amp;position=43&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$19,980</t>
+          <t>$2,404</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Plus 256 Gb  12 Gb Ram Violeta</t>
+          <t>Modulo Raspberry Pi Poe Hat Alimentacion Ethernet Pi4 Pi3 B+</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-2161758657-samsung-galaxy-s24-plus-256-gb-12-gb-ram-violeta-_JM_NoIndex_True?searchVariation=185470323265#polycard_client=search-nordic&amp;searchVariation=185470323265&amp;position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-923970749-modulo-raspberry-pi-poe-hat-alimentacion-ethernet-pi4-pi3-b-_JM#polycard_client=search-nordic&amp;position=44&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$14,109</t>
+          <t>$872</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Plus Dual SIM 5G 256 GB Violeta 12 GB RAM</t>
+          <t>Carcasa Case Raspberry Pi 4 Pantalla 7 Pulgadas Pi4</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-plus-dual-sim-5g-256-gb-violeta-12-gb-ram/p/MLM29723651#polycard_client=search-nordic&amp;wid=MLM2019498749&amp;sid=search&amp;searchVariation=MLM29723651&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://www.mercadolibre.com.mx/carcasa-case-raspberry-pi-4-pantalla-7-pulgadas-pi4/p/MLM39124209#polycard_client=search-nordic&amp;wid=MLM2115092795&amp;sid=search&amp;searchVariation=MLM39124209&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$14,015</t>
+          <t>$642</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 5G Dual SIM 256 GB amarillo ámbar 8 GB RAM</t>
+          <t>Cable Micro Hdmi A Hdmi Raspberry Pi 4 B 4kp60 1m Oficial</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://www.mercadolibre.com.mx/samsung-galaxy-s24-5g-dual-sim-256-gb-amarillo-ambar-8-gb-ram/p/MLM29761875#polycard_client=search-nordic&amp;wid=MLM2171690779&amp;sid=search&amp;searchVariation=MLM29761875&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-824567109-cable-micro-hdmi-a-hdmi-raspberry-pi-4-b-4kp60-1m-oficial-_JM#polycard_client=search-nordic&amp;position=45&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$13,199</t>
+          <t>$225</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Ultra 5g (256 Gb) Color Violeta Titanio 12 Gb Ram / Liberado</t>
+          <t>Codificador Ec11 20 Pasos Arduino Esp32 Raspberry Pi (4 Pzs)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-3446763610-samsung-galaxy-s24-ultra-5g-256-gb-color-violeta-titanio-12-gb-ram-liberado-_JM_NoIndex_True?searchVariation=182123604954#polycard_client=search-nordic&amp;searchVariation=182123604954&amp;position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-2878924868-codificador-ec11-20-pasos-arduino-esp32-raspberry-pi-4-pzs-_JM#polycard_client=search-nordic&amp;position=46&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$17,599</t>
+          <t>$84</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Smartphone Samsung Galaxy S24+ Ambar 512gb</t>
+          <t>Carcasa De Aluminio Para Raspberry Pi 4 Con Ventilador Doble</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-3433708234-smartphone-samsung-galaxy-s24-ambar-512gb-_JM_NoIndex_True?searchVariation=182051480044#polycard_client=search-nordic&amp;searchVariation=182051480044&amp;position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-949316438-carcasa-de-aluminio-para-raspberry-pi-4-con-ventilador-doble-_JM#polycard_client=search-nordic&amp;position=47&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$26,999</t>
+          <t>$205</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Plus 5g (256 Gb)  Gris Mármol 12 Gb Ram / Liberado</t>
+          <t>Cable Flex Ffc 50cm 500mm Cámara Raspberry Pi 4/3 50 Cm</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-3446773584-samsung-galaxy-s24-plus-5g-256-gb-gris-marmol-12-gb-ram-liberado-_JM_NoIndex_True?searchVariation=185926196781#polycard_client=search-nordic&amp;searchVariation=185926196781&amp;position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-1516161913-cable-flex-ffc-50cm-500mm-camara-raspberry-pi-43-50-cm-_JM#polycard_client=search-nordic&amp;position=48&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$13,290</t>
+          <t>$70</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Plus 5g (256 Gb) Azul Zafiro 12 Gb Ram / Liberado</t>
+          <t>Raspberry Pi 4 B 4gb Carcasa Case Eliminador Oficial Pi4 Kit</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-3446741878-samsung-galaxy-s24-plus-5g-256-gb-azul-zafiro-12-gb-ram-liberado-_JM_NoIndex_True?searchVariation=182123645294#polycard_client=search-nordic&amp;searchVariation=182123645294&amp;position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-734627017-raspberry-pi-4-b-4gb-carcasa-case-eliminador-oficial-pi4-kit-_JM#polycard_client=search-nordic&amp;position=49&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$12,500</t>
+          <t>$2,275</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S23 256gb Lavanda ¡cargador, Mica Y Funda De Regalo!</t>
+          <t>Raspberry Pi Pico W</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-3402678812-samsung-galaxy-s23-256gb-lavanda-cargador-mica-y-funda-de-regalo-_JM_NoIndex_True?searchVariation=185346974295#polycard_client=search-nordic&amp;searchVariation=185346974295&amp;position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-1479911106-raspberry-pi-pico-w-_JM#polycard_client=search-nordic&amp;position=50&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$9,550</t>
+          <t>$208</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 (esim) Galaxy Ai 128 Gb Amber Yellow 8 Gb Ram</t>
+          <t>Cable Alimentación Para Raspberry Pi 4 Con Botón I/o Usb C</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-2183484777-samsung-galaxy-s24-esim-galaxy-ai-128-gb-amber-yellow-8-gb-ram-_JM_NoIndex_True?searchVariation=182205256950#polycard_client=search-nordic&amp;searchVariation=182205256950&amp;position=51&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-922408157-cable-alimentacion-para-raspberry-pi-4-con-boton-io-usb-c-_JM#polycard_client=search-nordic&amp;position=51&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$30,001</t>
+          <t>$75</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Ultra 256gb 12ram Titanium Black + Silicone Case Samsung Galaxy S24 Ultra</t>
+          <t>Cargador Eliminador Raspberry Pi 4 Tipo C 5v A 3a</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://articulo.mercadolibre.com.mx/MLM-3313125058-samsung-galaxy-s24-ultra-256gb-12ram-titanium-black-silicone-case-samsung-galaxy-s24-ultra-_JM_NoIndex_True?searchVariation=184294016577#polycard_client=search-nordic&amp;searchVariation=184294016577&amp;position=52&amp;search_layout=stack&amp;type=item&amp;tracking_id=916e74a5-1bb0-4cc6-a97f-d7f76f6bff2d</t>
+          <t>https://articulo.mercadolibre.com.mx/MLM-917735293-cargador-eliminador-raspberry-pi-4-tipo-c-5v-a-3a-_JM#polycard_client=search-nordic&amp;position=52&amp;search_layout=stack&amp;type=item&amp;tracking_id=0b58a6f9-f910-4eeb-b3d0-d9cdb8ff49e0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$19,424</t>
+          <t>$146</t>
         </is>
       </c>
     </row>
